--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_13_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>819906.0527523765</v>
+        <v>817387.3843378974</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>332.5128093963176</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>381.4859536980655</v>
       </c>
     </row>
     <row r="3">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>30.43143599765896</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>81.2118254010829</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>7.157261199728277</v>
       </c>
       <c r="F5" t="n">
-        <v>242.6524197459649</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -950,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1105,16 +1105,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>143.7383943419981</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.82062748942978</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>105.2845941643075</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778463</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>141.4476473748325</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>222.1526784153803</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>276.08305933298</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.4296912136494</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>22.60777203238032</v>
+        <v>22.60777203238013</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>97.97552699114104</v>
+        <v>97.97552699114094</v>
       </c>
       <c r="T11" t="n">
         <v>201.7640893793779</v>
@@ -1433,10 +1433,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>256.3495156828398</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.7362075312412</v>
       </c>
       <c r="H12" t="n">
-        <v>87.05432226458126</v>
+        <v>87.05432226458123</v>
       </c>
       <c r="I12" t="n">
-        <v>9.753166794035252</v>
+        <v>9.753166794035167</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>123.253538246862</v>
+        <v>123.2535382468619</v>
       </c>
       <c r="T12" t="n">
         <v>189.655441187015</v>
@@ -1528,25 +1528,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>124.1004521009539</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.269511590915899</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8050985482227</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.7927049400678</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>89.7150774703404</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.00824149146332</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.9226570076761</v>
       </c>
       <c r="T13" t="n">
         <v>218.6059168754546</v>
@@ -1585,13 +1585,13 @@
         <v>286.1997994941144</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>314.9813656337144</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081966</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U14" t="n">
-        <v>200.6173698503569</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>7.018581172448736</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>17.9158234369996</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5420528771669</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>20.92847288552946</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>15.93450140722141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>88.07243242897313</v>
+        <v>120.787132650397</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2476,19 +2476,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>104.8913819999784</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740329</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>4.019807611472697</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2776,7 +2776,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890392</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518788</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2950,25 +2950,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613215</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012139</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>51.3656974031081</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389032</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>99.9742741983374</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1.799772605716393</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3278,10 +3278,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,16 +3430,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833818</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>26.05480806223644</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,7 +3661,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3724,7 +3724,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>105.8460632289456</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833929</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7971820797021</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>66.85274231757869</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1192.384522157329</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="C2" t="n">
-        <v>823.4220052169173</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="D2" t="n">
-        <v>465.1563066101668</v>
+        <v>1263.725694231566</v>
       </c>
       <c r="E2" t="n">
-        <v>465.1563066101668</v>
+        <v>877.9374416333219</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674217</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4358,22 +4358,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>1582.523854133141</v>
+        <v>1649.065041401329</v>
       </c>
       <c r="Y2" t="n">
-        <v>1192.384522157329</v>
+        <v>1263.725694231566</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>590.2049751143493</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L3" t="n">
-        <v>884.908532145821</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M3" t="n">
-        <v>1248.170551105041</v>
+        <v>956.2844025217535</v>
       </c>
       <c r="N3" t="n">
-        <v>1635.455679701986</v>
+        <v>1590.463386300792</v>
       </c>
       <c r="O3" t="n">
-        <v>1967.526114878148</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2214.708848710445</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>833.9149192343713</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C4" t="n">
-        <v>664.9787363064644</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>514.8620968941286</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>367.9721493962183</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4495,7 +4495,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4507,31 +4507,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1605.707295834438</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1605.707295834438</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1316.588958338276</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>1061.904470132389</v>
+        <v>743.1050005787336</v>
       </c>
       <c r="W4" t="n">
-        <v>1061.904470132389</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="X4" t="n">
-        <v>833.9149192343713</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y4" t="n">
-        <v>833.9149192343713</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1118.44218746127</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="C5" t="n">
-        <v>1118.44218746127</v>
+        <v>805.7846820932077</v>
       </c>
       <c r="D5" t="n">
-        <v>760.1764888545194</v>
+        <v>447.5189834864572</v>
       </c>
       <c r="E5" t="n">
-        <v>374.3882362562752</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800312</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872921</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056586</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525392</v>
+        <v>1582.523854133141</v>
       </c>
       <c r="Y5" t="n">
-        <v>1505.042027525392</v>
+        <v>1192.384522157329</v>
       </c>
     </row>
     <row r="6">
@@ -4638,34 +4638,34 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M6" t="n">
-        <v>956.2844025217532</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O6" t="n">
-        <v>1860.224488783101</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>199.1598801503962</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="C7" t="n">
-        <v>199.1598801503962</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>199.1598801503962</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800313</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800313</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312202</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1192.043668434791</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V7" t="n">
-        <v>937.3591802289043</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W7" t="n">
-        <v>647.9420101919437</v>
+        <v>797.0355035197966</v>
       </c>
       <c r="X7" t="n">
-        <v>419.9524592939264</v>
+        <v>569.0459526217793</v>
       </c>
       <c r="Y7" t="n">
-        <v>199.1598801503962</v>
+        <v>348.2533734782492</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1795.666214589424</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1426.703697649012</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1426.703697649012</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1040.915445050768</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>629.9295402611601</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>214.8570901061566</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609172</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.03470992366</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653545</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2182.266054653545</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,43 +4936,43 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.8444854681032</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1326.594608541191</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V10" t="n">
-        <v>1071.910120335304</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W10" t="n">
-        <v>782.492950298343</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X10" t="n">
-        <v>782.492950298343</v>
+        <v>456.2408785036204</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.492950298343</v>
+        <v>235.4482993600903</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2039.925018196099</v>
+        <v>1535.258832689355</v>
       </c>
       <c r="C11" t="n">
-        <v>1670.962501255688</v>
+        <v>1256.387055585335</v>
       </c>
       <c r="D11" t="n">
-        <v>1312.696802648937</v>
+        <v>898.1213569785843</v>
       </c>
       <c r="E11" t="n">
-        <v>926.9085500506931</v>
+        <v>512.33310438034</v>
       </c>
       <c r="F11" t="n">
-        <v>515.9226452610854</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="G11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="H11" t="n">
-        <v>101.3471995907325</v>
+        <v>101.3471995907324</v>
       </c>
       <c r="I11" t="n">
-        <v>78.5110662246918</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J11" t="n">
-        <v>308.7333971386824</v>
+        <v>308.7333971386834</v>
       </c>
       <c r="K11" t="n">
-        <v>704.5155104420319</v>
+        <v>704.5155104420328</v>
       </c>
       <c r="L11" t="n">
-        <v>1232.419981301224</v>
+        <v>1232.419981301226</v>
       </c>
       <c r="M11" t="n">
-        <v>1851.484858878109</v>
+        <v>1851.484858878111</v>
       </c>
       <c r="N11" t="n">
-        <v>2485.180661765424</v>
+        <v>2485.180661765427</v>
       </c>
       <c r="O11" t="n">
-        <v>3070.2263776871</v>
+        <v>3070.226377687104</v>
       </c>
       <c r="P11" t="n">
-        <v>3535.048359856282</v>
+        <v>3535.048359856286</v>
       </c>
       <c r="Q11" t="n">
-        <v>3835.93756388224</v>
+        <v>3835.937563882244</v>
       </c>
       <c r="R11" t="n">
-        <v>3925.55331123459</v>
+        <v>3925.553311234595</v>
       </c>
       <c r="S11" t="n">
-        <v>3826.588132455659</v>
+        <v>3826.588132455665</v>
       </c>
       <c r="T11" t="n">
-        <v>3622.786021971439</v>
+        <v>3622.786021971445</v>
       </c>
       <c r="U11" t="n">
-        <v>3369.295305604048</v>
+        <v>3369.295305604053</v>
       </c>
       <c r="V11" t="n">
-        <v>3038.232418260477</v>
+        <v>3038.232418260483</v>
       </c>
       <c r="W11" t="n">
-        <v>2685.463762990362</v>
+        <v>2685.463762990368</v>
       </c>
       <c r="X11" t="n">
-        <v>2426.524858260221</v>
+        <v>2311.998004729288</v>
       </c>
       <c r="Y11" t="n">
-        <v>2426.524858260221</v>
+        <v>1921.858672753477</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>618.1656010111994</v>
       </c>
       <c r="E12" t="n">
-        <v>458.928146005744</v>
+        <v>458.9281460057439</v>
       </c>
       <c r="F12" t="n">
         <v>312.3935880326289</v>
@@ -5112,34 +5112,34 @@
         <v>176.2964087081428</v>
       </c>
       <c r="H12" t="n">
-        <v>88.36274985503044</v>
+        <v>88.36274985503046</v>
       </c>
       <c r="I12" t="n">
-        <v>78.5110662246918</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J12" t="n">
-        <v>196.8120623792128</v>
+        <v>196.8120623792131</v>
       </c>
       <c r="K12" t="n">
-        <v>477.1621322376501</v>
+        <v>477.1621322376508</v>
       </c>
       <c r="L12" t="n">
-        <v>900.4499396649596</v>
+        <v>900.4499396649609</v>
       </c>
       <c r="M12" t="n">
-        <v>993.4308829282792</v>
+        <v>1413.763713908851</v>
       </c>
       <c r="N12" t="n">
-        <v>1534.739190279346</v>
+        <v>1955.072021259918</v>
       </c>
       <c r="O12" t="n">
-        <v>2007.710743145095</v>
+        <v>1991.670362601622</v>
       </c>
       <c r="P12" t="n">
-        <v>2367.979045985249</v>
+        <v>2351.938665441777</v>
       </c>
       <c r="Q12" t="n">
-        <v>2558.889669173201</v>
+        <v>2542.849288629729</v>
       </c>
       <c r="R12" t="n">
         <v>2558.889669173201</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>954.1460655307083</v>
+        <v>203.8650582458575</v>
       </c>
       <c r="C13" t="n">
-        <v>785.2098826028014</v>
+        <v>203.8650582458575</v>
       </c>
       <c r="D13" t="n">
-        <v>635.0932431904657</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="E13" t="n">
-        <v>487.1801496080725</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="F13" t="n">
-        <v>480.8473096172482</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="G13" t="n">
-        <v>313.367412093791</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="H13" t="n">
-        <v>169.132356598773</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="I13" t="n">
-        <v>78.5110662246918</v>
+        <v>78.5110662246919</v>
       </c>
       <c r="J13" t="n">
-        <v>139.0818334600399</v>
+        <v>139.0818334600402</v>
       </c>
       <c r="K13" t="n">
-        <v>368.4550473457705</v>
+        <v>368.4550473457707</v>
       </c>
       <c r="L13" t="n">
-        <v>717.5002252888917</v>
+        <v>717.5002252888922</v>
       </c>
       <c r="M13" t="n">
-        <v>1095.908548779221</v>
+        <v>1095.908548779222</v>
       </c>
       <c r="N13" t="n">
-        <v>1470.753784542993</v>
+        <v>1470.753784542995</v>
       </c>
       <c r="O13" t="n">
-        <v>1800.967734715848</v>
+        <v>1800.96773471585</v>
       </c>
       <c r="P13" t="n">
-        <v>2060.00213308252</v>
+        <v>2060.002133082523</v>
       </c>
       <c r="Q13" t="n">
-        <v>2155.909043551104</v>
+        <v>2155.909043551106</v>
       </c>
       <c r="R13" t="n">
-        <v>2155.909043551104</v>
+        <v>2076.102739014274</v>
       </c>
       <c r="S13" t="n">
-        <v>2155.909043551104</v>
+        <v>1888.302075370157</v>
       </c>
       <c r="T13" t="n">
-        <v>1935.09498610115</v>
+        <v>1667.488017920203</v>
       </c>
       <c r="U13" t="n">
-        <v>1646.004279541439</v>
+        <v>1378.397311360492</v>
       </c>
       <c r="V13" t="n">
-        <v>1646.004279541439</v>
+        <v>1123.712823154605</v>
       </c>
       <c r="W13" t="n">
-        <v>1356.587109504478</v>
+        <v>834.2956531176444</v>
       </c>
       <c r="X13" t="n">
-        <v>1356.587109504478</v>
+        <v>606.3061022196271</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.794530360948</v>
+        <v>385.5135230760969</v>
       </c>
     </row>
     <row r="14">
@@ -5252,7 +5252,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C14" t="n">
         <v>1948.261951965432</v>
@@ -5270,58 +5270,58 @@
         <v>379.2389888872364</v>
       </c>
       <c r="H14" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608057</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J14" t="n">
-        <v>372.3074987251935</v>
+        <v>372.3074987251932</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128754</v>
+        <v>841.9378825128749</v>
       </c>
       <c r="L14" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N14" t="n">
         <v>2919.747202874793</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P14" t="n">
-        <v>4150.915188021282</v>
+        <v>4150.915188021279</v>
       </c>
       <c r="Q14" t="n">
-        <v>4514.49737412729</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R14" t="n">
-        <v>4640.581161304028</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S14" t="n">
-        <v>4555.113898070877</v>
+        <v>4555.113898070874</v>
       </c>
       <c r="T14" t="n">
-        <v>4353.904749750196</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.198054476971</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X14" t="n">
-        <v>3093.963640945777</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y14" t="n">
-        <v>2703.824308969965</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="15">
@@ -5343,28 +5343,28 @@
         <v>459.9992225560484</v>
       </c>
       <c r="F15" t="n">
-        <v>313.4646645829334</v>
+        <v>313.4646645829333</v>
       </c>
       <c r="G15" t="n">
         <v>177.6844143428629</v>
       </c>
       <c r="H15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I15" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J15" t="n">
-        <v>240.4596049779265</v>
+        <v>240.4596049779263</v>
       </c>
       <c r="K15" t="n">
-        <v>240.4596049779265</v>
+        <v>570.9683475412851</v>
       </c>
       <c r="L15" t="n">
-        <v>240.4596049779265</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="M15" t="n">
-        <v>733.6583989593863</v>
+        <v>1061.700680385036</v>
       </c>
       <c r="N15" t="n">
         <v>1355.754362358723</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>745.0885253246422</v>
+        <v>561.9183350635715</v>
       </c>
       <c r="C16" t="n">
-        <v>576.1523423967353</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="D16" t="n">
-        <v>426.0357029843994</v>
+        <v>554.8288591318051</v>
       </c>
       <c r="E16" t="n">
-        <v>278.1226094020063</v>
+        <v>406.915765549412</v>
       </c>
       <c r="F16" t="n">
-        <v>260.0258180515017</v>
+        <v>260.0258180515016</v>
       </c>
       <c r="G16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I16" t="n">
-        <v>92.81162322608056</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J16" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156343</v>
       </c>
       <c r="K16" t="n">
-        <v>431.4224730861982</v>
+        <v>431.4224730861979</v>
       </c>
       <c r="L16" t="n">
-        <v>819.1842911693325</v>
+        <v>819.184291169332</v>
       </c>
       <c r="M16" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N16" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O16" t="n">
         <v>2020.132206020528</v>
       </c>
       <c r="P16" t="n">
-        <v>2310.662640856733</v>
+        <v>2310.662640856732</v>
       </c>
       <c r="Q16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="R16" t="n">
-        <v>2428.375774410168</v>
+        <v>2428.375774410167</v>
       </c>
       <c r="S16" t="n">
-        <v>2428.375774410168</v>
+        <v>2245.205584149097</v>
       </c>
       <c r="T16" t="n">
-        <v>2208.69699212455</v>
+        <v>2025.526801863479</v>
       </c>
       <c r="U16" t="n">
-        <v>1919.620778439277</v>
+        <v>1736.450588178206</v>
       </c>
       <c r="V16" t="n">
-        <v>1664.93629023339</v>
+        <v>1481.766099972319</v>
       </c>
       <c r="W16" t="n">
-        <v>1375.519120196429</v>
+        <v>1192.348929935358</v>
       </c>
       <c r="X16" t="n">
-        <v>1147.529569298412</v>
+        <v>964.3593790373411</v>
       </c>
       <c r="Y16" t="n">
-        <v>926.7369901548819</v>
+        <v>743.5667998938112</v>
       </c>
     </row>
     <row r="17">
@@ -5519,19 +5519,19 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836015</v>
+        <v>580.8993044876697</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556946</v>
+        <v>411.9631215597628</v>
       </c>
       <c r="D19" t="n">
-        <v>565.7099969556946</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="E19" t="n">
-        <v>565.7099969556946</v>
+        <v>261.8464821474271</v>
       </c>
       <c r="F19" t="n">
-        <v>418.8200494577842</v>
+        <v>114.9565346495168</v>
       </c>
       <c r="G19" t="n">
-        <v>251.6239501726641</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>109.9121190148622</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359457</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138409</v>
+        <v>983.3403484614396</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138409</v>
+        <v>762.5477693179095</v>
       </c>
     </row>
     <row r="20">
@@ -5741,10 +5741,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5756,22 +5756,22 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5835,19 +5835,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.3164745246293</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>701.3802915967224</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="D22" t="n">
-        <v>701.3802915967224</v>
+        <v>363.7369613277357</v>
       </c>
       <c r="E22" t="n">
-        <v>553.4671980143293</v>
+        <v>215.8238677453425</v>
       </c>
       <c r="F22" t="n">
-        <v>406.5772505164189</v>
+        <v>215.8238677453425</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1500.747069396416</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1272.757518498399</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y22" t="n">
-        <v>1051.964939354869</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5966,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6029,7 +6029,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400714</v>
+        <v>580.8993044876686</v>
       </c>
       <c r="C25" t="n">
-        <v>407.9027098310023</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D25" t="n">
-        <v>407.9027098310023</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138413</v>
+        <v>983.3403484614385</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703112</v>
+        <v>762.5477693179083</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,28 +6218,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438171</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597626</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>411.9631215597626</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>411.9631215597626</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>265.0731740618522</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G28" t="n">
-        <v>97.87707477673217</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>931.4710609784064</v>
+        <v>513.8536007400718</v>
       </c>
       <c r="C31" t="n">
-        <v>762.5348780504995</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>612.4182386381638</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E31" t="n">
-        <v>464.5051450557706</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578603</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6634,7 +6634,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2395.078540748838</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>2106.003314093036</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1851.318825887149</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1561.901655850188</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y31" t="n">
-        <v>1113.119525808646</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6677,43 +6677,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6722,25 +6722,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.793114229131</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468418</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963486</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338369</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400704</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121646</v>
+        <v>344.9174178121635</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121646</v>
+        <v>194.8007783998278</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121646</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270445</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6874,34 +6874,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W34" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138404</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703102</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>261.8464821474266</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F37" t="n">
-        <v>261.8464821474266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7114,31 +7114,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7148,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>634.9279362553154</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C40" t="n">
-        <v>634.9279362553154</v>
+        <v>411.9631215597622</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429798</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>261.8464821474263</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>94.6503828623059</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>94.6503828623059</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1037.368980229085</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y40" t="n">
-        <v>816.5764010855552</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="41">
@@ -7397,16 +7397,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111701</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349513</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543136</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121655</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138422</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="44">
@@ -7622,46 +7622,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,19 +7722,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
         <v>1307.627092998424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408905</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.073881198504</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1098.667160263526</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y46" t="n">
-        <v>1098.667160263526</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>168.7434581780638</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,10 +8067,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>45.44676101130761</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8298,25 +8298,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621887</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.5911984019043</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>186.4490126143847</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>89.18983243802751</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.4296912136494</v>
       </c>
       <c r="H11" t="n">
-        <v>289.5687166806773</v>
+        <v>289.5687166806772</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>113.3815849956293</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.51502091725844</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>139.1515364320153</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8050985482227</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.7927049400678</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>89.71507747034033</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.00824149146341</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.9226570076762</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23473,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>50.29152613729315</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23549,7 +23549,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>50.2915261372894</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23653,16 +23653,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>160.2282399261791</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>127.5052245859316</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440905</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108359</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>144.5956654067394</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>65.33133491134413</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,25 +24127,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>77.45170586329573</v>
+        <v>44.73700564187189</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24364,19 +24364,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>62.3554390986494</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459493</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>136.2749052347512</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,22 +24838,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124957</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.0397529241802</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459385</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>138.4949402405075</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>139.4693302300324</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25549,7 +25549,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>80.44045370237473</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25612,7 +25612,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>119.8635921600916</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459196</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856552</v>
@@ -25834,7 +25834,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>57.22910392194245</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>63.3683537222875</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>114.1735436840659</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>910822.9601449649</v>
+        <v>910822.9601449658</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>991211.9918017484</v>
+        <v>991211.9918017479</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>996683.8561654178</v>
+        <v>996683.8561654179</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654177</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>996683.8561654182</v>
+        <v>996683.8561654179</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>996683.8561654179</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>996683.8561654181</v>
+        <v>996683.8561654178</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787486</v>
       </c>
       <c r="C2" t="n">
         <v>431046.9291787487</v>
@@ -26320,13 +26320,13 @@
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
-        <v>386954.437971345</v>
+        <v>386954.4379713451</v>
       </c>
       <c r="F2" t="n">
-        <v>421406.8801099661</v>
+        <v>421406.8801099659</v>
       </c>
       <c r="G2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="H2" t="n">
         <v>423751.9648372533</v>
@@ -26335,7 +26335,7 @@
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
       <c r="K2" t="n">
         <v>423751.9648372533</v>
@@ -26344,10 +26344,10 @@
         <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
+        <v>423751.9648372531</v>
+      </c>
+      <c r="N2" t="n">
         <v>423751.9648372532</v>
-      </c>
-      <c r="N2" t="n">
-        <v>423751.964837253</v>
       </c>
       <c r="O2" t="n">
         <v>423751.9648372532</v>
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.140440338</v>
+        <v>192627.1404403377</v>
       </c>
       <c r="E3" t="n">
-        <v>143114.1392185152</v>
+        <v>143114.1392185171</v>
       </c>
       <c r="F3" t="n">
-        <v>166521.3471051385</v>
+        <v>166521.3471051366</v>
       </c>
       <c r="G3" t="n">
-        <v>11167.23623557874</v>
+        <v>11167.23623557934</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099827</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>48293.97000819066</v>
       </c>
       <c r="M3" t="n">
-        <v>37377.32855115316</v>
+        <v>37377.32855115364</v>
       </c>
       <c r="N3" t="n">
-        <v>43782.40655848926</v>
+        <v>43782.40655848876</v>
       </c>
       <c r="O3" t="n">
-        <v>3023.297977224584</v>
+        <v>3023.297977224956</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>135522.1369769831</v>
       </c>
       <c r="D4" t="n">
-        <v>87914.29116309552</v>
+        <v>87914.29116309565</v>
       </c>
       <c r="E4" t="n">
-        <v>8628.13543443824</v>
+        <v>8628.135434438242</v>
       </c>
       <c r="F4" t="n">
-        <v>8720.723770518933</v>
+        <v>8720.723770518931</v>
       </c>
       <c r="G4" t="n">
+        <v>8727.256391744282</v>
+      </c>
+      <c r="H4" t="n">
         <v>8727.256391744284</v>
       </c>
-      <c r="H4" t="n">
-        <v>8727.256391744282</v>
-      </c>
       <c r="I4" t="n">
-        <v>8727.256391744282</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="J4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744297</v>
       </c>
       <c r="K4" t="n">
-        <v>8727.256391744293</v>
+        <v>8727.256391744288</v>
       </c>
       <c r="L4" t="n">
-        <v>8727.256391744224</v>
+        <v>8727.256391744271</v>
       </c>
       <c r="M4" t="n">
-        <v>8727.256391744266</v>
+        <v>8727.256391744308</v>
       </c>
       <c r="N4" t="n">
         <v>8727.256391744282</v>
       </c>
       <c r="O4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744286</v>
       </c>
       <c r="P4" t="n">
-        <v>8727.256391744284</v>
+        <v>8727.256391744282</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>92937.77243984473</v>
+      </c>
+      <c r="C5" t="n">
         <v>92937.7724398447</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>86093.72216214708</v>
+        <v>86093.72216214718</v>
       </c>
       <c r="F5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-912164.7638139988</v>
+        <v>-912164.763813999</v>
       </c>
       <c r="C6" t="n">
-        <v>202587.019761921</v>
+        <v>202587.0197619212</v>
       </c>
       <c r="D6" t="n">
-        <v>42571.55701392192</v>
+        <v>42571.55701392217</v>
       </c>
       <c r="E6" t="n">
-        <v>149118.4411562445</v>
+        <v>148908.4769123979</v>
       </c>
       <c r="F6" t="n">
-        <v>146022.6807204703</v>
+        <v>145976.7757249064</v>
       </c>
       <c r="G6" t="n">
-        <v>302734.9423860232</v>
+        <v>302700.2044605867</v>
       </c>
       <c r="H6" t="n">
-        <v>313902.1786216018</v>
+        <v>313867.4406961662</v>
       </c>
       <c r="I6" t="n">
-        <v>313902.1786216018</v>
+        <v>313867.440696166</v>
       </c>
       <c r="J6" t="n">
-        <v>146297.000811619</v>
+        <v>146262.2628861837</v>
       </c>
       <c r="K6" t="n">
-        <v>313902.1786216019</v>
+        <v>313867.4406961662</v>
       </c>
       <c r="L6" t="n">
-        <v>265608.2086134111</v>
+        <v>265573.4706879755</v>
       </c>
       <c r="M6" t="n">
-        <v>276524.8500704487</v>
+        <v>276490.1121450123</v>
       </c>
       <c r="N6" t="n">
-        <v>270119.7720631124</v>
+        <v>270085.0341376772</v>
       </c>
       <c r="O6" t="n">
-        <v>310878.8806443772</v>
+        <v>310844.1427189411</v>
       </c>
       <c r="P6" t="n">
-        <v>313902.1786216017</v>
+        <v>313867.4406961662</v>
       </c>
     </row>
   </sheetData>
@@ -26735,19 +26735,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1212.170267494556</v>
+        <v>1212.170267494557</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716385</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
-        <v>981.3883278086474</v>
+        <v>981.3883278086488</v>
       </c>
       <c r="F4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26814,13 +26814,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="E3" t="n">
-        <v>122.3935669012571</v>
+        <v>122.3935669012587</v>
       </c>
       <c r="F3" t="n">
-        <v>145.8707812218302</v>
+        <v>145.8707812218286</v>
       </c>
       <c r="G3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26981,22 +26981,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="E4" t="n">
-        <v>149.9868724063545</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="F4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="G4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063545</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173593</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>190.8166233022536</v>
       </c>
       <c r="M4" t="n">
-        <v>149.9868724063545</v>
+        <v>149.9868724063564</v>
       </c>
       <c r="N4" t="n">
-        <v>178.7569625173595</v>
+        <v>178.7569625173572</v>
       </c>
       <c r="O4" t="n">
-        <v>12.56299777364143</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>74.36323634539383</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.751984957988043</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>164.2310243640785</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>170.9258179227451</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27622,16 +27622,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>374.7731088725335</v>
       </c>
       <c r="F5" t="n">
-        <v>164.2236259957465</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,10 +27670,10 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>142.4887597792026</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>258.7023708471612</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,10 +27865,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>189.323170223013</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.23830939228861</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>25.79917372379532</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28026,10 +28026,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28056,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>3.556976973656901</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -29496,7 +29496,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>-7.965435133550907e-13</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-8.726211759833198e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29715,7 +29715,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -29733,7 +29733,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>5.177298589842394e-12</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29940,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -31045,28 +31045,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L2" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O2" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
         <v>405.5015080147052</v>
@@ -31081,7 +31081,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,7 +31118,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
         <v>19.40387634380021</v>
@@ -31130,10 +31130,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040589</v>
@@ -31142,7 +31142,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378626</v>
@@ -31154,10 +31154,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U3" t="n">
         <v>0.1321789941675764</v>
@@ -31203,19 +31203,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
         <v>257.7559726067959</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31358,10 +31358,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31370,34 +31370,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31455,10 +31455,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.873046301485648</v>
+        <v>4.873046301485652</v>
       </c>
       <c r="H11" t="n">
-        <v>49.9060854350899</v>
+        <v>49.90608543508994</v>
       </c>
       <c r="I11" t="n">
-        <v>187.8681175380256</v>
+        <v>187.8681175380258</v>
       </c>
       <c r="J11" t="n">
-        <v>413.5937135307178</v>
+        <v>413.5937135307182</v>
       </c>
       <c r="K11" t="n">
-        <v>619.8697634726054</v>
+        <v>619.869763472606</v>
       </c>
       <c r="L11" t="n">
-        <v>769.0032542216969</v>
+        <v>769.0032542216977</v>
       </c>
       <c r="M11" t="n">
-        <v>855.6642913857423</v>
+        <v>855.6642913857431</v>
       </c>
       <c r="N11" t="n">
-        <v>869.5098341898384</v>
+        <v>869.5098341898392</v>
       </c>
       <c r="O11" t="n">
-        <v>821.0534800294405</v>
+        <v>821.0534800294413</v>
       </c>
       <c r="P11" t="n">
-        <v>700.7501494615135</v>
+        <v>700.7501494615141</v>
       </c>
       <c r="Q11" t="n">
-        <v>526.2341787895585</v>
+        <v>526.234178789559</v>
       </c>
       <c r="R11" t="n">
-        <v>306.106494735698</v>
+        <v>306.1064947356983</v>
       </c>
       <c r="S11" t="n">
-        <v>111.0445425951043</v>
+        <v>111.0445425951044</v>
       </c>
       <c r="T11" t="n">
-        <v>21.33176018475343</v>
+        <v>21.33176018475345</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3898437041188517</v>
+        <v>0.3898437041188521</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.607309631969422</v>
+        <v>2.607309631969424</v>
       </c>
       <c r="H12" t="n">
-        <v>25.18112197191521</v>
+        <v>25.18112197191523</v>
       </c>
       <c r="I12" t="n">
-        <v>89.76921320596475</v>
+        <v>89.76921320596483</v>
       </c>
       <c r="J12" t="n">
-        <v>246.333582378304</v>
+        <v>246.3335823783043</v>
       </c>
       <c r="K12" t="n">
-        <v>421.0233277202553</v>
+        <v>421.0233277202557</v>
       </c>
       <c r="L12" t="n">
-        <v>566.1178216256413</v>
+        <v>566.1178216256419</v>
       </c>
       <c r="M12" t="n">
-        <v>236.0541786324421</v>
+        <v>660.6327957845334</v>
       </c>
       <c r="N12" t="n">
-        <v>678.1177801147138</v>
+        <v>678.1177801147144</v>
       </c>
       <c r="O12" t="n">
-        <v>620.3452877431807</v>
+        <v>179.5642660017211</v>
       </c>
       <c r="P12" t="n">
-        <v>497.8817840205469</v>
+        <v>497.8817840205473</v>
       </c>
       <c r="Q12" t="n">
-        <v>332.8207874071845</v>
+        <v>332.8207874071848</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>161.8819085533297</v>
       </c>
       <c r="S12" t="n">
-        <v>48.42963285697585</v>
+        <v>48.42963285697589</v>
       </c>
       <c r="T12" t="n">
-        <v>10.50928750780657</v>
+        <v>10.50928750780658</v>
       </c>
       <c r="U12" t="n">
-        <v>0.171533528419041</v>
+        <v>0.1715335284190411</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.185880810236084</v>
+        <v>2.185880810236086</v>
       </c>
       <c r="H13" t="n">
-        <v>19.43446756737174</v>
+        <v>19.43446756737176</v>
       </c>
       <c r="I13" t="n">
-        <v>65.73539745691788</v>
+        <v>65.73539745691795</v>
       </c>
       <c r="J13" t="n">
-        <v>154.5417732836911</v>
+        <v>154.5417732836913</v>
       </c>
       <c r="K13" t="n">
-        <v>253.959606861974</v>
+        <v>253.9596068619743</v>
       </c>
       <c r="L13" t="n">
-        <v>324.9808615509174</v>
+        <v>324.9808615509178</v>
       </c>
       <c r="M13" t="n">
-        <v>342.6467528263708</v>
+        <v>342.6467528263711</v>
       </c>
       <c r="N13" t="n">
-        <v>334.4993788973093</v>
+        <v>334.4993788973096</v>
       </c>
       <c r="O13" t="n">
-        <v>308.9643167050058</v>
+        <v>308.9643167050061</v>
       </c>
       <c r="P13" t="n">
-        <v>264.3723481761895</v>
+        <v>264.3723481761897</v>
       </c>
       <c r="Q13" t="n">
-        <v>183.0377103916779</v>
+        <v>183.0377103916781</v>
       </c>
       <c r="R13" t="n">
-        <v>98.28514988570608</v>
+        <v>98.28514988570616</v>
       </c>
       <c r="S13" t="n">
-        <v>38.0939410292961</v>
+        <v>38.09394102929614</v>
       </c>
       <c r="T13" t="n">
-        <v>9.339672552826901</v>
+        <v>9.33967255282691</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1192298623765138</v>
+        <v>0.1192298623765139</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377424</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122281</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830429</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364261</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293306</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229606</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.857844208695</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687522</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148605</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901939</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32066,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540904</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735817</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848223</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745723</v>
       </c>
       <c r="M15" t="n">
-        <v>640.3146339032908</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>428.3656332688754</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426203</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982452</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862159</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32145,34 +32145,34 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291842</v>
       </c>
       <c r="H16" t="n">
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284924</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273332</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900885</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416873</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282423</v>
       </c>
       <c r="Q16" t="n">
         <v>205.0641983561742</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851327</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32309,34 +32309,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>309.9424824173362</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>240.4469701760385</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>163.1438255932938</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179097</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817577</v>
@@ -34205,16 +34205,16 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862122</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171348</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742439</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860823</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34699,28 +34699,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O2" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,22 +34775,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
-        <v>355.3309544215487</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>380.8714430074307</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
@@ -34799,7 +34799,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,7 +34854,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
@@ -34863,7 +34863,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
         <v>301.8881449860245</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839448</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>521.8736946105078</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>232.5478090040315</v>
+        <v>232.5478090040319</v>
       </c>
       <c r="K11" t="n">
-        <v>399.7799124276249</v>
+        <v>399.7799124276254</v>
       </c>
       <c r="L11" t="n">
-        <v>533.2368392517096</v>
+        <v>533.2368392517105</v>
       </c>
       <c r="M11" t="n">
-        <v>625.3180581584696</v>
+        <v>625.3180581584704</v>
       </c>
       <c r="N11" t="n">
-        <v>640.0967705932476</v>
+        <v>640.0967705932483</v>
       </c>
       <c r="O11" t="n">
-        <v>590.9552686077537</v>
+        <v>590.9552686077545</v>
       </c>
       <c r="P11" t="n">
-        <v>469.517153706244</v>
+        <v>469.5171537062445</v>
       </c>
       <c r="Q11" t="n">
-        <v>303.928488915109</v>
+        <v>303.9284889151095</v>
       </c>
       <c r="R11" t="n">
-        <v>90.52095692156593</v>
+        <v>90.52095692156621</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4959557116374</v>
+        <v>119.4959557116376</v>
       </c>
       <c r="K12" t="n">
-        <v>283.1818887458963</v>
+        <v>283.1818887458967</v>
       </c>
       <c r="L12" t="n">
-        <v>427.5634418457672</v>
+        <v>427.5634418457677</v>
       </c>
       <c r="M12" t="n">
-        <v>93.92014471042378</v>
+        <v>518.498761862515</v>
       </c>
       <c r="N12" t="n">
-        <v>546.7760680313805</v>
+        <v>546.7760680313811</v>
       </c>
       <c r="O12" t="n">
-        <v>477.7490432987363</v>
+        <v>36.96802155727664</v>
       </c>
       <c r="P12" t="n">
-        <v>363.9073766062166</v>
+        <v>363.9073766062171</v>
       </c>
       <c r="Q12" t="n">
-        <v>192.839013321163</v>
+        <v>192.8390133211632</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>16.20240458936578</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>61.18259316701833</v>
+        <v>61.1825931670185</v>
       </c>
       <c r="K13" t="n">
-        <v>231.6901150360912</v>
+        <v>231.6901150360914</v>
       </c>
       <c r="L13" t="n">
-        <v>352.5708868112335</v>
+        <v>352.5708868112339</v>
       </c>
       <c r="M13" t="n">
-        <v>382.2306297882114</v>
+        <v>382.2306297882117</v>
       </c>
       <c r="N13" t="n">
-        <v>378.6315512765379</v>
+        <v>378.6315512765382</v>
       </c>
       <c r="O13" t="n">
-        <v>333.5494446190455</v>
+        <v>333.5494446190458</v>
       </c>
       <c r="P13" t="n">
-        <v>261.650907441083</v>
+        <v>261.6509074410832</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.87566713998352</v>
+        <v>96.87566713998369</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380623</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664388</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020579</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263696</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870083</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134826</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.254733440411</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.357360784584</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.139375506915</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104633</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946981</v>
       </c>
       <c r="M15" t="n">
-        <v>498.1805999812725</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>297.0239211855421</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981759</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>423.821735783915</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426736</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066046</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642056</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243779</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209159</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>167.3462379728918</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36677,25 +36677,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>101.8925903961643</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>20.54758114884936</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394571</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899067</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.4543240367771</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875403</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317081</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.190340064064</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
